--- a/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-26T18:31:01+00:00</t>
+    <t>2021-09-27T18:51:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-27T18:51:25+00:00</t>
+    <t>2021-09-27T19:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-27T19:56:41+00:00</t>
+    <t>2021-09-28T18:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T18:02:44+00:00</t>
+    <t>2021-09-29T20:43:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T20:43:54+00:00</t>
+    <t>2021-09-29T21:05:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T21:05:52+00:00</t>
+    <t>2021-09-30T17:44:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-30T17:44:30+00:00</t>
+    <t>2021-10-01T17:05:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T17:05:15+00:00</t>
+    <t>2021-10-01T17:28:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T17:28:30+00:00</t>
+    <t>2021-10-03T20:25:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-03T20:25:33+00:00</t>
+    <t>2021-10-03T21:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.17-alpha</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-03T21:06:41+00:00</t>
+    <t>2021-10-27T20:00:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-27T20:00:18+00:00</t>
+    <t>2021-10-28T19:43:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-28T19:43:55+00:00</t>
+    <t>2021-11-03T17:38:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-03T17:38:13+00:00</t>
+    <t>2021-11-03T17:57:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
